--- a/Fire-web/public/cavity.xlsx
+++ b/Fire-web/public/cavity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1027</v>
+        <v>885.5</v>
       </c>
       <c r="C2" t="n">
-        <v>122.2253962755203</v>
+        <v>111.4974738359451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8638879169183031</v>
+        <v>0.8950934392723336</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1250.5</v>
+        <v>235</v>
       </c>
       <c r="C3" t="n">
-        <v>133.7817450761795</v>
+        <v>57.94112455844879</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8780107772336201</v>
+        <v>0.8796378052069085</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>588</v>
+        <v>96.5</v>
       </c>
       <c r="C4" t="n">
-        <v>93.25483298301697</v>
+        <v>36.38477575778961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8496586690537201</v>
+        <v>0.9160048476150097</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1436</v>
+        <v>105</v>
       </c>
       <c r="C5" t="n">
-        <v>201.9655100107193</v>
+        <v>38.62741637229919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4423946667885615</v>
+        <v>0.88431672970269</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>182.5</v>
+        <v>502.5</v>
       </c>
       <c r="C6" t="n">
-        <v>50.87005722522736</v>
+        <v>91.0121922492981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8862337406504233</v>
+        <v>0.7623366143639747</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38672</v>
+        <v>289</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8914803266525</v>
+        <v>63.94112479686737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7354300195058063</v>
+        <v>0.8882744354920126</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>870.5</v>
+        <v>588</v>
       </c>
       <c r="C8" t="n">
-        <v>120.6101716756821</v>
+        <v>92.91168713569641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7519877539537028</v>
+        <v>0.8559462578105053</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6480.5</v>
+        <v>332</v>
       </c>
       <c r="C9" t="n">
-        <v>365.1787129640579</v>
+        <v>68.7695517539978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6106712464516451</v>
+        <v>0.8821766543569324</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2906</v>
+        <v>244.5</v>
       </c>
       <c r="C10" t="n">
-        <v>222.6518017053604</v>
+        <v>59.35533821582794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7366361815072362</v>
+        <v>0.8721057692073514</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>233.5</v>
+        <v>170.5</v>
       </c>
       <c r="C11" t="n">
-        <v>57.35533845424652</v>
+        <v>49.6984840631485</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8919675504913249</v>
+        <v>0.8674570156368562</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14218</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>501.1025936603546</v>
+        <v>32.97056245803833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7115330422146692</v>
+        <v>0.8669986383319356</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>674.5</v>
+        <v>97</v>
       </c>
       <c r="C13" t="n">
-        <v>99.15432822704315</v>
+        <v>36.97056233882904</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8621214783768918</v>
+        <v>0.8918041426313423</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>790.5</v>
+        <v>895.5</v>
       </c>
       <c r="C14" t="n">
-        <v>111.1543278694153</v>
+        <v>111.982754945755</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8040054348366302</v>
+        <v>0.8973733318468655</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>418</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
-        <v>85.94112503528595</v>
+        <v>30.97056233882904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7111874373862747</v>
+        <v>0.8646804055172045</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29509.5</v>
+        <v>4273</v>
       </c>
       <c r="C16" t="n">
-        <v>681.1097338199615</v>
+        <v>243.6223653554916</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7993510343508117</v>
+        <v>0.9047080317024747</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1132.5</v>
+        <v>509.5</v>
       </c>
       <c r="C17" t="n">
-        <v>134.1248905658722</v>
+        <v>84.66904604434967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7910962274138271</v>
+        <v>0.89310952071219</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>81.5</v>
+        <v>97</v>
       </c>
       <c r="C18" t="n">
-        <v>33.55634868144989</v>
+        <v>36.62741637229919</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9095321935201929</v>
+        <v>0.9085922485272715</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>281</v>
+        <v>704.5</v>
       </c>
       <c r="C19" t="n">
-        <v>62.76955163478851</v>
+        <v>99.15432727336884</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8962272218580726</v>
+        <v>0.900466409488337</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>25297.5</v>
+        <v>420.5</v>
       </c>
       <c r="C20" t="n">
-        <v>727.4284938573837</v>
+        <v>81.84061920642853</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6007680822282778</v>
+        <v>0.7889292371063202</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>147</v>
+        <v>373.5</v>
       </c>
       <c r="C21" t="n">
-        <v>47.45584344863892</v>
+        <v>85.84062004089355</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8202529584310697</v>
+        <v>0.6369638397636762</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>377.5</v>
+        <v>718</v>
       </c>
       <c r="C22" t="n">
-        <v>73.84061992168427</v>
+        <v>100.5685406923294</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8700338538622788</v>
+        <v>0.8920927536018578</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>649.5</v>
+        <v>49.5</v>
       </c>
       <c r="C23" t="n">
-        <v>102.4680367708206</v>
+        <v>26.72792184352875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7773420986940908</v>
+        <v>0.8707323452559141</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4749.5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>425.4873690605164</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3296737829445339</v>
+        <v>0.7853981633974483</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>8747</v>
+        <v>1616</v>
       </c>
       <c r="C25" t="n">
-        <v>455.043718457222</v>
+        <v>151.5391036272049</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5308389033330667</v>
+        <v>0.8843044132517023</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6264.5</v>
+        <v>136415.5</v>
       </c>
       <c r="C26" t="n">
-        <v>311.4629843235016</v>
+        <v>1417.692556619644</v>
       </c>
       <c r="D26" t="n">
-        <v>0.811490418833049</v>
+        <v>0.8529222911297356</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,363 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>6696</v>
+        <v>3118.5</v>
       </c>
       <c r="C27" t="n">
-        <v>365.2203434705734</v>
+        <v>298.811182141304</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6308344291633881</v>
+        <v>0.4388963014535167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6981317007977318</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146.1248909235001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8048015405807204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2193.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>176.7523078918457</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8823021071003923</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27.55634891986847</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7529704109841459</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>42</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24.48528122901917</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8803370121606843</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>170</v>
+      </c>
+      <c r="C33" t="n">
+        <v>49.45584356784821</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8734208546783475</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>43.21320295333862</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8849173338945051</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49.69848430156708</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8827201804631709</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>68</v>
+      </c>
+      <c r="C36" t="n">
+        <v>32.14213538169861</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8271215282200076</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2417.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>186.6101710796356</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8723800487095144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4100.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>247.03657746315</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8443532057756264</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>36.38477575778961</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9065125694013827</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>51.69848430156708</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8815673859547765</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
+      <c r="C41" t="n">
+        <v>15.65685415267944</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9227272726407235</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>52.38477599620819</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7487165596839492</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19.0710676908493</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8119470551706076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>19.65685415267944</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8130585890050616</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21.89949476718903</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8253767416572696</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>76.18376517295837</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8866228195099991</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>37.55634891986847</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.868655850896451</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>435799.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3658.500773310661</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.4091572861095673</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>991.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>134.3259009122849</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6905308066258103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>513</v>
+      </c>
+      <c r="C50" t="n">
+        <v>86.42640578746796</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8630467557798412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>53.35533833503723</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.858566053954699</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>28.72792184352875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8146202935146012</v>
       </c>
     </row>
   </sheetData>
